--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.5081032111776</v>
+        <v>254.8162733739633</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.5061738013589</v>
+        <v>348.6508669306749</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.457163529871</v>
+        <v>315.3761175254803</v>
       </c>
       <c r="AD2" t="n">
-        <v>176508.1032111776</v>
+        <v>254816.2733739633</v>
       </c>
       <c r="AE2" t="n">
-        <v>241506.1738013589</v>
+        <v>348650.8669306749</v>
       </c>
       <c r="AF2" t="n">
         <v>9.916386465455442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>218457.163529871</v>
+        <v>315376.1175254803</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4023485022126</v>
+        <v>220.9219973946501</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.5236167377278</v>
+        <v>302.2752232258792</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.6224154210727</v>
+        <v>273.4265001672309</v>
       </c>
       <c r="AD3" t="n">
-        <v>152402.3485022126</v>
+        <v>220921.9973946501</v>
       </c>
       <c r="AE3" t="n">
-        <v>208523.6167377278</v>
+        <v>302275.2232258793</v>
       </c>
       <c r="AF3" t="n">
         <v>1.148538307925685e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>188622.4154210727</v>
+        <v>273426.5001672309</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.1836108581618</v>
+        <v>209.8815840913274</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.8560861262281</v>
+        <v>287.1692426756213</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.1140315907401</v>
+        <v>259.762213199308</v>
       </c>
       <c r="AD4" t="n">
-        <v>151183.6108581618</v>
+        <v>209881.5840913274</v>
       </c>
       <c r="AE4" t="n">
-        <v>206856.0861262281</v>
+        <v>287169.2426756213</v>
       </c>
       <c r="AF4" t="n">
         <v>1.20185273210149e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>187114.0315907401</v>
+        <v>259762.2131993079</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.5503929292366</v>
+        <v>209.0358764028933</v>
       </c>
       <c r="AB5" t="n">
-        <v>192.3072482514127</v>
+        <v>286.0121081063163</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.9537143832702</v>
+        <v>258.7155139292485</v>
       </c>
       <c r="AD5" t="n">
-        <v>140550.3929292366</v>
+        <v>209035.8764028932</v>
       </c>
       <c r="AE5" t="n">
-        <v>192307.2482514126</v>
+        <v>286012.1081063163</v>
       </c>
       <c r="AF5" t="n">
         <v>1.230685674138236e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>173953.7143832702</v>
+        <v>258715.5139292484</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.0750429589071</v>
+        <v>208.5605264325638</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.6568534510477</v>
+        <v>285.3617133059513</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.365392349817</v>
+        <v>258.1271918957952</v>
       </c>
       <c r="AD6" t="n">
-        <v>140075.0429589071</v>
+        <v>208560.5264325638</v>
       </c>
       <c r="AE6" t="n">
-        <v>191656.8534510476</v>
+        <v>285361.7133059513</v>
       </c>
       <c r="AF6" t="n">
         <v>1.246524506009592e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>173365.392349817</v>
+        <v>258127.1918957952</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.4525906827247</v>
+        <v>198.1163984971096</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.8051867861189</v>
+        <v>271.0715967022644</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.5950075560671</v>
+        <v>245.2009039644551</v>
       </c>
       <c r="AD7" t="n">
-        <v>139452.5906827247</v>
+        <v>198116.3984971096</v>
       </c>
       <c r="AE7" t="n">
-        <v>190805.1867861189</v>
+        <v>271071.5967022644</v>
       </c>
       <c r="AF7" t="n">
         <v>1.264394420963386e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>172595.0075560671</v>
+        <v>245200.9039644551</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.3492591983894</v>
+        <v>198.0130670127743</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.663804090588</v>
+        <v>270.9302140067335</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.4671182265658</v>
+        <v>245.0730146349538</v>
       </c>
       <c r="AD8" t="n">
-        <v>139349.2591983894</v>
+        <v>198013.0670127743</v>
       </c>
       <c r="AE8" t="n">
-        <v>190663.804090588</v>
+        <v>270930.2140067335</v>
       </c>
       <c r="AF8" t="n">
         <v>1.259699424757988e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>172467.1182265658</v>
+        <v>245073.0146349538</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.068987091883</v>
+        <v>197.7327949062679</v>
       </c>
       <c r="AB9" t="n">
-        <v>190.2803234297335</v>
+        <v>270.546733345879</v>
       </c>
       <c r="AC9" t="n">
-        <v>172.1202364217646</v>
+        <v>244.7261328301526</v>
       </c>
       <c r="AD9" t="n">
-        <v>139068.987091883</v>
+        <v>197732.7949062679</v>
       </c>
       <c r="AE9" t="n">
-        <v>190280.3234297335</v>
+        <v>270546.733345879</v>
       </c>
       <c r="AF9" t="n">
         <v>1.258891813087226e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>172120.2364217646</v>
+        <v>244726.1328301526</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.9509149682271</v>
+        <v>228.6474392112786</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.2201425126586</v>
+        <v>312.8455135418239</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.2026411922249</v>
+        <v>282.9879768109209</v>
       </c>
       <c r="AD2" t="n">
-        <v>160950.9149682271</v>
+        <v>228647.4392112786</v>
       </c>
       <c r="AE2" t="n">
-        <v>220220.1425126586</v>
+        <v>312845.5135418239</v>
       </c>
       <c r="AF2" t="n">
         <v>1.202115694172432e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>199202.6411922249</v>
+        <v>282987.9768109209</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.328660696903</v>
+        <v>206.0583393288781</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.267376195227</v>
+        <v>281.938110521986</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.2039634496387</v>
+        <v>255.0303329564738</v>
       </c>
       <c r="AD3" t="n">
-        <v>138328.660696903</v>
+        <v>206058.3393288781</v>
       </c>
       <c r="AE3" t="n">
-        <v>189267.376195227</v>
+        <v>281938.110521986</v>
       </c>
       <c r="AF3" t="n">
         <v>1.361111400892004e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>171203.9634496387</v>
+        <v>255030.3329564738</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.6386043141488</v>
+        <v>195.6545794070922</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.323210609204</v>
+        <v>267.7032272155113</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.3499077020008</v>
+        <v>242.1540069339803</v>
       </c>
       <c r="AD4" t="n">
-        <v>137638.6043141488</v>
+        <v>195654.5794070922</v>
       </c>
       <c r="AE4" t="n">
-        <v>188323.210609204</v>
+        <v>267703.2272155113</v>
       </c>
       <c r="AF4" t="n">
         <v>1.397157461984048e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>170349.9077020008</v>
+        <v>242154.0069339803</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.8977884526969</v>
+        <v>194.9137635456404</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.309593665077</v>
+        <v>266.6896102713843</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.4330289364006</v>
+        <v>241.2371281683801</v>
       </c>
       <c r="AD5" t="n">
-        <v>136897.788452697</v>
+        <v>194913.7635456405</v>
       </c>
       <c r="AE5" t="n">
-        <v>187309.593665077</v>
+        <v>266689.6102713842</v>
       </c>
       <c r="AF5" t="n">
         <v>1.429464387210891e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>169433.0289364006</v>
+        <v>241237.1281683801</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.5236574227822</v>
+        <v>184.6069523234301</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.1152499155946</v>
+        <v>252.5873764527433</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.5933734324778</v>
+        <v>228.4807917527764</v>
       </c>
       <c r="AD6" t="n">
-        <v>126523.6574227822</v>
+        <v>184606.95232343</v>
       </c>
       <c r="AE6" t="n">
-        <v>173115.2499155946</v>
+        <v>252587.3764527433</v>
       </c>
       <c r="AF6" t="n">
         <v>1.449010769405699e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>156593.3734324778</v>
+        <v>228480.7917527764</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.5543881297232</v>
+        <v>194.2499013429175</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.1572970245745</v>
+        <v>265.7812847180858</v>
       </c>
       <c r="AC7" t="n">
-        <v>156.6314076243901</v>
+        <v>240.4154919310453</v>
       </c>
       <c r="AD7" t="n">
-        <v>126554.3881297232</v>
+        <v>194249.9013429175</v>
       </c>
       <c r="AE7" t="n">
-        <v>173157.2970245745</v>
+        <v>265781.2847180858</v>
       </c>
       <c r="AF7" t="n">
         <v>1.444249471178758e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>156631.4076243901</v>
+        <v>240415.4919310453</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6640454982395</v>
+        <v>176.6954507101127</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0978703726059</v>
+        <v>241.7625109145901</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3411613406064</v>
+        <v>218.6890361887868</v>
       </c>
       <c r="AD2" t="n">
-        <v>120664.0454982395</v>
+        <v>176695.4507101127</v>
       </c>
       <c r="AE2" t="n">
-        <v>165097.8703726059</v>
+        <v>241762.5109145901</v>
       </c>
       <c r="AF2" t="n">
         <v>2.088925470738167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>149341.1613406064</v>
+        <v>218689.0361887868</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.2001303462734</v>
+        <v>166.2988553658509</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.7806800263371</v>
+        <v>227.5374304991627</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.3903835466782</v>
+        <v>205.8215774831776</v>
       </c>
       <c r="AD3" t="n">
-        <v>110200.1303462734</v>
+        <v>166298.8553658509</v>
       </c>
       <c r="AE3" t="n">
-        <v>150780.6800263371</v>
+        <v>227537.4304991627</v>
       </c>
       <c r="AF3" t="n">
         <v>2.200605199729439e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>136390.3835466781</v>
+        <v>205821.5774831776</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.447495387941</v>
+        <v>200.7913208685115</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.9569945945788</v>
+        <v>274.7315435000611</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4003972157873</v>
+        <v>248.5115505766387</v>
       </c>
       <c r="AD2" t="n">
-        <v>134447.495387941</v>
+        <v>200791.3208685115</v>
       </c>
       <c r="AE2" t="n">
-        <v>183956.9945945788</v>
+        <v>274731.5435000611</v>
       </c>
       <c r="AF2" t="n">
         <v>1.650349096367005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>166400.3972157873</v>
+        <v>248511.5505766388</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.854419297352</v>
+        <v>179.6483548417393</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.0948364370221</v>
+        <v>245.8028046204157</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.052101170104</v>
+        <v>222.3437299339176</v>
       </c>
       <c r="AD3" t="n">
-        <v>122854.419297352</v>
+        <v>179648.3548417393</v>
       </c>
       <c r="AE3" t="n">
-        <v>168094.8364370221</v>
+        <v>245802.8046204157</v>
       </c>
       <c r="AF3" t="n">
         <v>1.809462202171138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>152052.101170104</v>
+        <v>222343.7299339176</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.2351977200994</v>
+        <v>179.0291332644868</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.2475901568976</v>
+        <v>244.9555583402912</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.2857148858367</v>
+        <v>221.5773436496503</v>
       </c>
       <c r="AD4" t="n">
-        <v>122235.1977200994</v>
+        <v>179029.1332644868</v>
       </c>
       <c r="AE4" t="n">
-        <v>167247.5901568976</v>
+        <v>244955.5583402913</v>
       </c>
       <c r="AF4" t="n">
         <v>1.843642704034177e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>151285.7148858367</v>
+        <v>221577.3436496503</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.316605066177</v>
+        <v>163.7898987944585</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2035576428398</v>
+        <v>224.1045654308332</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.059218106447</v>
+        <v>202.7163402389121</v>
       </c>
       <c r="AD2" t="n">
-        <v>108316.605066177</v>
+        <v>163789.8987944585</v>
       </c>
       <c r="AE2" t="n">
-        <v>148203.5576428398</v>
+        <v>224104.5654308333</v>
       </c>
       <c r="AF2" t="n">
         <v>2.552869541146708e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134059.218106447</v>
+        <v>202716.3402389121</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4355829782933</v>
+        <v>163.9088767065748</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3663484711322</v>
+        <v>224.2673562591258</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2064724065656</v>
+        <v>202.8635945390307</v>
       </c>
       <c r="AD3" t="n">
-        <v>108435.5829782933</v>
+        <v>163908.8767065748</v>
       </c>
       <c r="AE3" t="n">
-        <v>148366.3484711322</v>
+        <v>224267.3562591258</v>
       </c>
       <c r="AF3" t="n">
         <v>2.530909214344359e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>134206.4724065656</v>
+        <v>202863.5945390307</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.3556957594166</v>
+        <v>239.9929599312488</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.1422255657175</v>
+        <v>328.368955519928</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.941283336361</v>
+        <v>297.0298832739273</v>
       </c>
       <c r="AD2" t="n">
-        <v>162355.6957594166</v>
+        <v>239992.9599312488</v>
       </c>
       <c r="AE2" t="n">
-        <v>222142.2255657175</v>
+        <v>328368.955519928</v>
       </c>
       <c r="AF2" t="n">
         <v>1.142643164324207e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>200941.283336361</v>
+        <v>297029.8832739273</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.6033586116413</v>
+        <v>207.5316940846469</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.011474117874</v>
+        <v>283.9540194986522</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.7816071144057</v>
+        <v>256.8538464097537</v>
       </c>
       <c r="AD3" t="n">
-        <v>139603.3586116413</v>
+        <v>207531.6940846469</v>
       </c>
       <c r="AE3" t="n">
-        <v>191011.474117874</v>
+        <v>283954.0194986522</v>
       </c>
       <c r="AF3" t="n">
         <v>1.29086069968268e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172781.6071144057</v>
+        <v>256853.8464097537</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.276258029138</v>
+        <v>196.4625104143934</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.1956765533484</v>
+        <v>268.8086740631006</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.1391067209499</v>
+        <v>243.1539514859405</v>
       </c>
       <c r="AD4" t="n">
-        <v>138276.258029138</v>
+        <v>196462.5104143934</v>
       </c>
       <c r="AE4" t="n">
-        <v>189195.6765533484</v>
+        <v>268808.6740631006</v>
       </c>
       <c r="AF4" t="n">
         <v>1.355271489514347e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>171139.1067209499</v>
+        <v>243153.9514859405</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.1100198618335</v>
+        <v>196.2962722470889</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.9682221589321</v>
+        <v>268.5812196686843</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.9333602547024</v>
+        <v>242.948205019693</v>
       </c>
       <c r="AD5" t="n">
-        <v>138110.0198618335</v>
+        <v>196296.2722470889</v>
       </c>
       <c r="AE5" t="n">
-        <v>188968.2221589321</v>
+        <v>268581.2196686843</v>
       </c>
       <c r="AF5" t="n">
         <v>1.35741444016016e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>170933.3602547024</v>
+        <v>242948.205019693</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.5256070433988</v>
+        <v>195.7118594286542</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.1686027582762</v>
+        <v>267.7816002680285</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.210055407372</v>
+        <v>242.2249001723626</v>
       </c>
       <c r="AD6" t="n">
-        <v>137525.6070433988</v>
+        <v>195711.8594286542</v>
       </c>
       <c r="AE6" t="n">
-        <v>188168.6027582762</v>
+        <v>267781.6002680284</v>
       </c>
       <c r="AF6" t="n">
         <v>1.375960937941643e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>170210.055407372</v>
+        <v>242224.9001723626</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.9732800798353</v>
+        <v>195.1595324650907</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.4128846397832</v>
+        <v>267.0258821495354</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.5264619654506</v>
+        <v>241.5413067304412</v>
       </c>
       <c r="AD7" t="n">
-        <v>136973.2800798354</v>
+        <v>195159.5324650907</v>
       </c>
       <c r="AE7" t="n">
-        <v>187412.8846397832</v>
+        <v>267025.8821495354</v>
       </c>
       <c r="AF7" t="n">
         <v>1.396528115911671e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>169526.4619654506</v>
+        <v>241541.3067304412</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4063617485808</v>
+        <v>162.5093065085702</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.9581225786042</v>
+        <v>222.3524025695374</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9326456167626</v>
+        <v>201.1314013419217</v>
       </c>
       <c r="AD2" t="n">
-        <v>107406.3617485808</v>
+        <v>162509.3065085702</v>
       </c>
       <c r="AE2" t="n">
-        <v>146958.1225786042</v>
+        <v>222352.4025695375</v>
       </c>
       <c r="AF2" t="n">
         <v>2.752577079246677e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>132932.6456167626</v>
+        <v>201131.4013419217</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.1280958902868</v>
+        <v>204.6256042029207</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.3071516304913</v>
+        <v>279.9777791148392</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0946796152961</v>
+        <v>253.2570928274821</v>
       </c>
       <c r="AD2" t="n">
-        <v>147128.0958902868</v>
+        <v>204625.6042029207</v>
       </c>
       <c r="AE2" t="n">
-        <v>201307.1516304913</v>
+        <v>279977.7791148392</v>
       </c>
       <c r="AF2" t="n">
         <v>1.416904905308781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182094.6796152961</v>
+        <v>253257.0928274821</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5996120902042</v>
+        <v>193.0629549840573</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.5333714944162</v>
+        <v>264.1572523455164</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.8263269167636</v>
+        <v>238.9464549287697</v>
       </c>
       <c r="AD3" t="n">
-        <v>135599.6120902042</v>
+        <v>193062.9549840573</v>
       </c>
       <c r="AE3" t="n">
-        <v>185533.3714944162</v>
+        <v>264157.2523455164</v>
       </c>
       <c r="AF3" t="n">
         <v>1.545411316410416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>167826.3269167636</v>
+        <v>238946.4549287697</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.0142458171807</v>
+        <v>182.5449085187382</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.0500063662714</v>
+        <v>249.765997148213</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.7252338289137</v>
+        <v>225.9286809292389</v>
       </c>
       <c r="AD4" t="n">
-        <v>125014.2458171807</v>
+        <v>182544.9085187382</v>
       </c>
       <c r="AE4" t="n">
-        <v>171050.0063662714</v>
+        <v>249765.997148213</v>
       </c>
       <c r="AF4" t="n">
         <v>1.597334474871827e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>154725.2338289137</v>
+        <v>225928.6809292388</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.5519051315031</v>
+        <v>182.0825678330606</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.4174114430962</v>
+        <v>249.1334022250378</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.1530128773536</v>
+        <v>225.3564599776787</v>
       </c>
       <c r="AD5" t="n">
-        <v>124551.9051315031</v>
+        <v>182082.5678330606</v>
       </c>
       <c r="AE5" t="n">
-        <v>170417.4114430962</v>
+        <v>249133.4022250378</v>
       </c>
       <c r="AF5" t="n">
         <v>1.61069351978463e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>154153.0128773536</v>
+        <v>225356.4599776787</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.5460290112935</v>
+        <v>182.076691712851</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.4093714761892</v>
+        <v>249.1253622581309</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.1457402336041</v>
+        <v>225.3491873339292</v>
       </c>
       <c r="AD6" t="n">
-        <v>124546.0290112935</v>
+        <v>182076.691712851</v>
       </c>
       <c r="AE6" t="n">
-        <v>170409.3714761893</v>
+        <v>249125.3622581309</v>
       </c>
       <c r="AF6" t="n">
         <v>1.608284159027409e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>154145.7402336041</v>
+        <v>225349.1873339292</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7209064157585</v>
+        <v>226.8612990456354</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8547493781673</v>
+        <v>310.4016377682494</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3036996130198</v>
+        <v>280.7773411111743</v>
       </c>
       <c r="AD2" t="n">
-        <v>149720.9064157585</v>
+        <v>226861.2990456354</v>
       </c>
       <c r="AE2" t="n">
-        <v>204854.7493781673</v>
+        <v>310401.6377682494</v>
       </c>
       <c r="AF2" t="n">
         <v>1.270025842970121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>185303.6996130198</v>
+        <v>280777.3411111743</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.4254249686051</v>
+        <v>195.2646477614796</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.0315292238224</v>
+        <v>267.1697055354142</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.0860639786625</v>
+        <v>241.6714038142292</v>
       </c>
       <c r="AD3" t="n">
-        <v>137425.4249686051</v>
+        <v>195264.6477614796</v>
       </c>
       <c r="AE3" t="n">
-        <v>188031.5292238224</v>
+        <v>267169.7055354142</v>
       </c>
       <c r="AF3" t="n">
         <v>1.415928181373868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170086.0639786625</v>
+        <v>241671.4038142292</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.7218331078516</v>
+        <v>194.561055900726</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.0688437996577</v>
+        <v>266.2070201112494</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.2152559002423</v>
+        <v>240.8005957358089</v>
       </c>
       <c r="AD4" t="n">
-        <v>136721.8331078516</v>
+        <v>194561.0559007261</v>
       </c>
       <c r="AE4" t="n">
-        <v>187068.8437996577</v>
+        <v>266207.0201112495</v>
       </c>
       <c r="AF4" t="n">
         <v>1.453168609370593e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>169215.2559002422</v>
+        <v>240800.595735809</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.2832628498984</v>
+        <v>184.1898054504773</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.7863314555152</v>
+        <v>252.0166176979484</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.2958464885882</v>
+        <v>227.964505412474</v>
       </c>
       <c r="AD5" t="n">
-        <v>126283.2628498984</v>
+        <v>184189.8054504773</v>
       </c>
       <c r="AE5" t="n">
-        <v>172786.3314555152</v>
+        <v>252016.6176979484</v>
       </c>
       <c r="AF5" t="n">
         <v>1.486496829555231e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>156295.8464885882</v>
+        <v>227964.505412474</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.7875964997612</v>
+        <v>183.6941391003401</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.1081388880017</v>
+        <v>251.3384251304349</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.6823796678688</v>
+        <v>227.3510385917545</v>
       </c>
       <c r="AD6" t="n">
-        <v>125787.5964997612</v>
+        <v>183694.1391003401</v>
       </c>
       <c r="AE6" t="n">
-        <v>172108.1388880017</v>
+        <v>251338.4251304349</v>
       </c>
       <c r="AF6" t="n">
         <v>1.501800465996634e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>155682.3796678688</v>
+        <v>227351.0385917545</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.9986799735767</v>
+        <v>252.99987456126</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.440914336621</v>
+        <v>346.1655899412753</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.5890095298371</v>
+        <v>313.1280318838402</v>
       </c>
       <c r="AD2" t="n">
-        <v>174998.6799735767</v>
+        <v>252999.87456126</v>
       </c>
       <c r="AE2" t="n">
-        <v>239440.914336621</v>
+        <v>346165.5899412753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.038667152492421e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>216589.0095298371</v>
+        <v>313128.0318838402</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.5608488376639</v>
+        <v>219.9006936750613</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.3722397723477</v>
+        <v>300.8778304199982</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.5809242573004</v>
+        <v>272.1624725694898</v>
       </c>
       <c r="AD3" t="n">
-        <v>151560.8488376639</v>
+        <v>219900.6936750613</v>
       </c>
       <c r="AE3" t="n">
-        <v>207372.2397723477</v>
+        <v>300877.8304199983</v>
       </c>
       <c r="AF3" t="n">
         <v>1.186171818424727e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>187580.9242573004</v>
+        <v>272162.4725694897</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.3950095190992</v>
+        <v>208.7006889377158</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.0946458146306</v>
+        <v>285.5534898290334</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.7614024246652</v>
+        <v>258.3006655366746</v>
       </c>
       <c r="AD4" t="n">
-        <v>140395.0095190992</v>
+        <v>208700.6889377158</v>
       </c>
       <c r="AE4" t="n">
-        <v>192094.6458146306</v>
+        <v>285553.4898290334</v>
       </c>
       <c r="AF4" t="n">
         <v>1.243018921772185e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>173761.4024246652</v>
+        <v>258300.6655366746</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.6993815415274</v>
+        <v>208.005060960144</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.1428569267768</v>
+        <v>284.6017009411797</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.9004509324238</v>
+        <v>257.4397140444332</v>
       </c>
       <c r="AD5" t="n">
-        <v>139699.3815415274</v>
+        <v>208005.060960144</v>
       </c>
       <c r="AE5" t="n">
-        <v>191142.8569267768</v>
+        <v>284601.7009411796</v>
       </c>
       <c r="AF5" t="n">
         <v>1.272657681034518e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>172900.4509324238</v>
+        <v>257439.7140444332</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.1755541073337</v>
+        <v>197.6852441602556</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.426133121678</v>
+        <v>270.4816723173942</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.2521302413552</v>
+        <v>244.6672811349127</v>
       </c>
       <c r="AD6" t="n">
-        <v>139175.5541073337</v>
+        <v>197685.2441602556</v>
       </c>
       <c r="AE6" t="n">
-        <v>190426.133121678</v>
+        <v>270481.6723173942</v>
       </c>
       <c r="AF6" t="n">
         <v>1.290452011901586e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>172252.1302413552</v>
+        <v>244667.2811349127</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.7316488800931</v>
+        <v>197.2413389330151</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.8187624060512</v>
+        <v>269.8743016017675</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.7027261343775</v>
+        <v>244.117877027935</v>
       </c>
       <c r="AD7" t="n">
-        <v>138731.6488800931</v>
+        <v>197241.3389330151</v>
       </c>
       <c r="AE7" t="n">
-        <v>189818.7624060512</v>
+        <v>269874.3016017675</v>
       </c>
       <c r="AF7" t="n">
         <v>1.302290287347035e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>171702.7261343775</v>
+        <v>244117.877027935</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.3915745145653</v>
+        <v>196.9012645674873</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.3534576561142</v>
+        <v>269.4089968518305</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.281829416715</v>
+        <v>243.6969803102725</v>
       </c>
       <c r="AD8" t="n">
-        <v>138391.5745145653</v>
+        <v>196901.2645674873</v>
       </c>
       <c r="AE8" t="n">
-        <v>189353.4576561142</v>
+        <v>269408.9968518305</v>
       </c>
       <c r="AF8" t="n">
         <v>1.302745605633399e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>171281.829416715</v>
+        <v>243696.9803102725</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.4147069573349</v>
+        <v>196.9243970102568</v>
       </c>
       <c r="AB9" t="n">
-        <v>189.3851084848428</v>
+        <v>269.440647680559</v>
       </c>
       <c r="AC9" t="n">
-        <v>171.310459534772</v>
+        <v>243.7256104283295</v>
       </c>
       <c r="AD9" t="n">
-        <v>138414.7069573349</v>
+        <v>196924.3970102568</v>
       </c>
       <c r="AE9" t="n">
-        <v>189385.1084848428</v>
+        <v>269440.647680559</v>
       </c>
       <c r="AF9" t="n">
         <v>1.302745605633399e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>171310.459534772</v>
+        <v>243725.6104283295</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.8870194335821</v>
+        <v>202.4910479392429</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.9266149011428</v>
+        <v>277.0571850649006</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.1820397246729</v>
+        <v>250.6152361745892</v>
       </c>
       <c r="AD2" t="n">
-        <v>135887.0194335821</v>
+        <v>202491.0479392429</v>
       </c>
       <c r="AE2" t="n">
-        <v>185926.6149011428</v>
+        <v>277057.1850649006</v>
       </c>
       <c r="AF2" t="n">
         <v>1.541215300282414e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>168182.0397246729</v>
+        <v>250615.2361745892</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.8261496590429</v>
+        <v>180.9446015942785</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.4244007876049</v>
+        <v>247.5763866136096</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.2547737651229</v>
+        <v>223.9480437509196</v>
       </c>
       <c r="AD3" t="n">
-        <v>123826.1496590429</v>
+        <v>180944.6015942785</v>
       </c>
       <c r="AE3" t="n">
-        <v>169424.4007876049</v>
+        <v>247576.3866136096</v>
       </c>
       <c r="AF3" t="n">
         <v>1.71985501404906e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153254.7737651229</v>
+        <v>223948.0437509196</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9342898299606</v>
+        <v>179.951256538711</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.2041188233763</v>
+        <v>246.2172480852919</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.1509537988834</v>
+        <v>222.7186194961811</v>
       </c>
       <c r="AD4" t="n">
-        <v>122934.2898299606</v>
+        <v>179951.256538711</v>
       </c>
       <c r="AE4" t="n">
-        <v>168204.1188233763</v>
+        <v>246217.2480852919</v>
       </c>
       <c r="AF4" t="n">
         <v>1.769675312941858e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>152150.9537988834</v>
+        <v>222718.6194961811</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.982518286717</v>
+        <v>179.9994849954674</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.2701071255998</v>
+        <v>246.2832363875153</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.2106442701578</v>
+        <v>222.7783099674555</v>
       </c>
       <c r="AD5" t="n">
-        <v>122982.518286717</v>
+        <v>179999.4849954674</v>
       </c>
       <c r="AE5" t="n">
-        <v>168270.1071255998</v>
+        <v>246283.2363875153</v>
       </c>
       <c r="AF5" t="n">
         <v>1.768770186649425e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>152210.6442701578</v>
+        <v>222778.3099674555</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.9669587819047</v>
+        <v>178.3725589937848</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.880573807793</v>
+        <v>244.0572044571047</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.9537260619798</v>
+        <v>220.7647274002273</v>
       </c>
       <c r="AD2" t="n">
-        <v>121966.9587819047</v>
+        <v>178372.5589937848</v>
       </c>
       <c r="AE2" t="n">
-        <v>166880.573807793</v>
+        <v>244057.2044571047</v>
       </c>
       <c r="AF2" t="n">
         <v>1.932245427241144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150953.7260619798</v>
+        <v>220764.7274002272</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.6613162095242</v>
+        <v>167.6328286638341</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.0941360393779</v>
+        <v>229.3626316162107</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.3377834069005</v>
+        <v>207.4725839673009</v>
       </c>
       <c r="AD3" t="n">
-        <v>120661.3162095242</v>
+        <v>167632.8286638341</v>
       </c>
       <c r="AE3" t="n">
-        <v>165094.1360393779</v>
+        <v>229362.6316162107</v>
       </c>
       <c r="AF3" t="n">
         <v>2.052093870468583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>149337.7834069005</v>
+        <v>207472.5839673009</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.703409819215</v>
+        <v>167.6749222735248</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.1517303731957</v>
+        <v>229.4202259500285</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.389881018333</v>
+        <v>207.5246815787334</v>
       </c>
       <c r="AD4" t="n">
-        <v>120703.409819215</v>
+        <v>167674.9222735248</v>
       </c>
       <c r="AE4" t="n">
-        <v>165151.7303731957</v>
+        <v>229420.2259500285</v>
       </c>
       <c r="AF4" t="n">
         <v>2.046075718527172e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>149389.881018333</v>
+        <v>207524.6815787334</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.1626861881622</v>
+        <v>165.6593688874995</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.0436443292611</v>
+        <v>226.6624568873304</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.4829877477134</v>
+        <v>205.0301101248251</v>
       </c>
       <c r="AD2" t="n">
-        <v>119162.6861881622</v>
+        <v>165659.3688874995</v>
       </c>
       <c r="AE2" t="n">
-        <v>163043.6443292611</v>
+        <v>226662.4568873304</v>
       </c>
       <c r="AF2" t="n">
         <v>2.301425321311685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>147482.9877477134</v>
+        <v>205030.1101248251</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3713415648183</v>
+        <v>165.1729806519506</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.6466946519703</v>
+        <v>225.9969590455181</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.3646241448821</v>
+        <v>204.4281264630032</v>
       </c>
       <c r="AD3" t="n">
-        <v>109371.3415648183</v>
+        <v>165172.9806519506</v>
       </c>
       <c r="AE3" t="n">
-        <v>149646.6946519703</v>
+        <v>225996.9590455181</v>
       </c>
       <c r="AF3" t="n">
         <v>2.349108029836452e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>135364.6241448821</v>
+        <v>204428.1264630032</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.1377125028171</v>
+        <v>160.8098397971693</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.2223007116966</v>
+        <v>220.02711723982</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.3624881525908</v>
+        <v>199.0280379805133</v>
       </c>
       <c r="AD2" t="n">
-        <v>106137.7125028171</v>
+        <v>160809.8397971693</v>
       </c>
       <c r="AE2" t="n">
-        <v>145222.3007116966</v>
+        <v>220027.11723982</v>
       </c>
       <c r="AF2" t="n">
         <v>3.069899004449131e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131362.4881525908</v>
+        <v>199028.0379805133</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.2979578811283</v>
+        <v>215.5395190001626</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.9078084170284</v>
+        <v>294.9106788283572</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.5425719646626</v>
+        <v>266.7648175508031</v>
       </c>
       <c r="AD2" t="n">
-        <v>148297.9578811283</v>
+        <v>215539.5190001625</v>
       </c>
       <c r="AE2" t="n">
-        <v>202907.8084170284</v>
+        <v>294910.6788283572</v>
       </c>
       <c r="AF2" t="n">
         <v>1.344408359572201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183542.5719646626</v>
+        <v>266764.8175508031</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.8838066323196</v>
+        <v>194.5390979779175</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.2904631216023</v>
+        <v>266.1769763125477</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.4157241851452</v>
+        <v>240.7734192750886</v>
       </c>
       <c r="AD3" t="n">
-        <v>136883.8066323196</v>
+        <v>194539.0979779176</v>
       </c>
       <c r="AE3" t="n">
-        <v>187290.4631216023</v>
+        <v>266176.9763125477</v>
       </c>
       <c r="AF3" t="n">
         <v>1.457751362258847e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>169415.7241851452</v>
+        <v>240773.4192750886</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.894468967526</v>
+        <v>183.6170801208284</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.254366513278</v>
+        <v>251.2329896350649</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.8146515338205</v>
+        <v>227.2556657120829</v>
       </c>
       <c r="AD4" t="n">
-        <v>125894.468967526</v>
+        <v>183617.0801208284</v>
       </c>
       <c r="AE4" t="n">
-        <v>172254.366513278</v>
+        <v>251232.9896350649</v>
       </c>
       <c r="AF4" t="n">
         <v>1.528634236037767e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>155814.6515338205</v>
+        <v>227255.6657120829</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.4024138296758</v>
+        <v>183.1250249829781</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.581114965731</v>
+        <v>250.5597380875179</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.2056541690567</v>
+        <v>226.6466683473191</v>
       </c>
       <c r="AD5" t="n">
-        <v>125402.4138296757</v>
+        <v>183125.0249829782</v>
       </c>
       <c r="AE5" t="n">
-        <v>171581.114965731</v>
+        <v>250559.7380875179</v>
       </c>
       <c r="AF5" t="n">
         <v>1.547139642162278e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>155205.6541690567</v>
+        <v>226646.6683473191</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.0598174124786</v>
+        <v>182.782428565781</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.1123594334349</v>
+        <v>250.0909825552218</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.7816360068603</v>
+        <v>226.2226501851227</v>
       </c>
       <c r="AD6" t="n">
-        <v>125059.8174124786</v>
+        <v>182782.428565781</v>
       </c>
       <c r="AE6" t="n">
-        <v>171112.3594334349</v>
+        <v>250090.9825552218</v>
       </c>
       <c r="AF6" t="n">
         <v>1.563647661465528e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>154781.6360068603</v>
+        <v>226222.6501851227</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.5578706023823</v>
+        <v>241.6790177641772</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.4695353909304</v>
+        <v>330.6758942305613</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.8057762238749</v>
+        <v>299.1166509918274</v>
       </c>
       <c r="AD2" t="n">
-        <v>173557.8706023823</v>
+        <v>241679.0177641772</v>
       </c>
       <c r="AE2" t="n">
-        <v>237469.5353909304</v>
+        <v>330675.8942305613</v>
       </c>
       <c r="AF2" t="n">
         <v>1.089043200458478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>214805.7762238749</v>
+        <v>299116.6509918274</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3513111145398</v>
+        <v>208.7361294833749</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.7172968985318</v>
+        <v>285.6019811471306</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.0839268086341</v>
+        <v>258.3445289114305</v>
       </c>
       <c r="AD3" t="n">
-        <v>150351.3111145397</v>
+        <v>208736.1294833749</v>
       </c>
       <c r="AE3" t="n">
-        <v>205717.2968985318</v>
+        <v>285601.9811471306</v>
       </c>
       <c r="AF3" t="n">
         <v>1.243491545234402e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>186083.9268086341</v>
+        <v>258344.5289114305</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.5613161499684</v>
+        <v>207.6814522819062</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.9539497670308</v>
+        <v>284.1589252710076</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.729572806871</v>
+        <v>257.0391962627826</v>
       </c>
       <c r="AD4" t="n">
-        <v>139561.3161499684</v>
+        <v>207681.4522819062</v>
       </c>
       <c r="AE4" t="n">
-        <v>190953.9497670308</v>
+        <v>284158.9252710076</v>
       </c>
       <c r="AF4" t="n">
         <v>1.285650409378449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>172729.572806871</v>
+        <v>257039.1962627826</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.7323235210392</v>
+        <v>197.0829764710935</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.8196854795568</v>
+        <v>269.6576230949078</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.7035611110432</v>
+        <v>243.9218780136598</v>
       </c>
       <c r="AD5" t="n">
-        <v>138732.3235210392</v>
+        <v>197082.9764710935</v>
       </c>
       <c r="AE5" t="n">
-        <v>189819.6854795568</v>
+        <v>269657.6230949078</v>
       </c>
       <c r="AF5" t="n">
         <v>1.320369843886099e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>171703.5611110432</v>
+        <v>243921.8780136598</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.5270148535821</v>
+        <v>196.8776678036365</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.5387731031629</v>
+        <v>269.376710718514</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.4494586175893</v>
+        <v>243.6677755202059</v>
       </c>
       <c r="AD6" t="n">
-        <v>138527.0148535821</v>
+        <v>196877.6678036365</v>
       </c>
       <c r="AE6" t="n">
-        <v>189538.7731031629</v>
+        <v>269376.710718514</v>
       </c>
       <c r="AF6" t="n">
         <v>1.325935266733277e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>171449.4586175893</v>
+        <v>243667.7755202059</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.7975730319519</v>
+        <v>196.1482259820062</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.5407186221069</v>
+        <v>268.378656237458</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.5466570554267</v>
+        <v>242.7649739580433</v>
       </c>
       <c r="AD7" t="n">
-        <v>137797.5730319518</v>
+        <v>196148.2259820062</v>
       </c>
       <c r="AE7" t="n">
-        <v>188540.7186221069</v>
+        <v>268378.656237458</v>
       </c>
       <c r="AF7" t="n">
         <v>1.349328908531585e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>170546.6570554267</v>
+        <v>242764.9739580433</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.7637748407122</v>
+        <v>196.1144277907666</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.494474445782</v>
+        <v>268.3324120611331</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.5048263583861</v>
+        <v>242.7231432610026</v>
       </c>
       <c r="AD8" t="n">
-        <v>137763.7748407123</v>
+        <v>196114.4277907666</v>
       </c>
       <c r="AE8" t="n">
-        <v>188494.474445782</v>
+        <v>268332.4120611331</v>
       </c>
       <c r="AF8" t="n">
         <v>1.345159557856241e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>170504.8263583861</v>
+        <v>242723.1432610026</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.8617653526419</v>
+        <v>167.9382962725788</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.7906905819835</v>
+        <v>229.7805858747749</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9222457264892</v>
+        <v>207.8506492580304</v>
       </c>
       <c r="AD2" t="n">
-        <v>113861.7653526419</v>
+        <v>167938.2962725788</v>
       </c>
       <c r="AE2" t="n">
-        <v>155790.6905819835</v>
+        <v>229780.5858747749</v>
       </c>
       <c r="AF2" t="n">
         <v>3.461130568378587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>140922.2457264892</v>
+        <v>207850.6492580304</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.8155955283871</v>
+        <v>189.406922883769</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.7241572123975</v>
+        <v>259.1549079331517</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.3806586995537</v>
+        <v>234.421527246285</v>
       </c>
       <c r="AD2" t="n">
-        <v>132815.5955283871</v>
+        <v>189406.922883769</v>
       </c>
       <c r="AE2" t="n">
-        <v>181724.1572123975</v>
+        <v>259154.9079331517</v>
       </c>
       <c r="AF2" t="n">
         <v>1.793269810918606e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164380.6586995538</v>
+        <v>234421.527246285</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.6779928461332</v>
+        <v>168.8603777597816</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.4851978661933</v>
+        <v>231.0422184449293</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.5960842453327</v>
+        <v>208.9918733864021</v>
       </c>
       <c r="AD3" t="n">
-        <v>121677.9928461332</v>
+        <v>168860.3777597816</v>
       </c>
       <c r="AE3" t="n">
-        <v>166485.1978661933</v>
+        <v>231042.2184449293</v>
       </c>
       <c r="AF3" t="n">
         <v>1.933374213189968e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>150596.0842453327</v>
+        <v>208991.8733864021</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.4139338007244</v>
+        <v>168.5963187143728</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.1239006308022</v>
+        <v>230.6809212095382</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.2692687110033</v>
+        <v>208.6650578520728</v>
       </c>
       <c r="AD4" t="n">
-        <v>121413.9338007244</v>
+        <v>168596.3187143728</v>
       </c>
       <c r="AE4" t="n">
-        <v>166123.9006308022</v>
+        <v>230680.9212095382</v>
       </c>
       <c r="AF4" t="n">
         <v>1.953427149602924e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>150269.2687110034</v>
+        <v>208665.0578520728</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.4339965972761</v>
+        <v>203.2844668223498</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.6750131874379</v>
+        <v>278.1427757839376</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.8590119289078</v>
+        <v>251.5972196390378</v>
       </c>
       <c r="AD2" t="n">
-        <v>136433.9965972762</v>
+        <v>203284.4668223498</v>
       </c>
       <c r="AE2" t="n">
-        <v>186675.0131874379</v>
+        <v>278142.7757839375</v>
       </c>
       <c r="AF2" t="n">
         <v>1.489978748197052e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168859.0119289079</v>
+        <v>251597.2196390378</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.9860152305206</v>
+        <v>191.8023200368133</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.0113800321575</v>
+        <v>262.4323959954094</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.6902939379152</v>
+        <v>237.3862164478653</v>
       </c>
       <c r="AD3" t="n">
-        <v>124986.0152305206</v>
+        <v>191802.3200368134</v>
       </c>
       <c r="AE3" t="n">
-        <v>171011.3800321575</v>
+        <v>262432.3959954093</v>
       </c>
       <c r="AF3" t="n">
         <v>1.618013902899592e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154690.2939379152</v>
+        <v>237386.2164478652</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.0122632857271</v>
+        <v>181.3419509804594</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.6790496623878</v>
+        <v>248.1200575735999</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.4851193086985</v>
+        <v>224.4398275175355</v>
       </c>
       <c r="AD4" t="n">
-        <v>124012.2632857271</v>
+        <v>181341.9509804595</v>
       </c>
       <c r="AE4" t="n">
-        <v>169679.0496623878</v>
+        <v>248120.0575735999</v>
       </c>
       <c r="AF4" t="n">
         <v>1.675143888055504e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>153485.1193086985</v>
+        <v>224439.8275175355</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.7394577452406</v>
+        <v>180.9676602134877</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.3057850865633</v>
+        <v>247.6079364336861</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.1474785801105</v>
+        <v>223.9765825004485</v>
       </c>
       <c r="AD5" t="n">
-        <v>123739.4577452406</v>
+        <v>180967.6602134877</v>
       </c>
       <c r="AE5" t="n">
-        <v>169305.7850865633</v>
+        <v>247607.9364336861</v>
       </c>
       <c r="AF5" t="n">
         <v>1.690118846570575e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>153147.4785801105</v>
+        <v>223976.5825004485</v>
       </c>
     </row>
   </sheetData>
